--- a/src/main/resources/initialDataFiles/doses.xlsx
+++ b/src/main/resources/initialDataFiles/doses.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Java\SpringBootProjects\MedTracker\src\main\resources\initialDataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catha\Documents\Health\ADHD\medTrackerInitialData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A11282F-2012-48A0-9248-85D32A9F55BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14015F0B-9F52-4B5F-889C-2F24C5A56C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33560" yWindow="3550" windowWidth="26460" windowHeight="15910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-60" windowWidth="35200" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>DoseTime</t>
   </si>
@@ -35,13 +35,16 @@
   <si>
     <t>PrescriptionScheduleEntry</t>
   </si>
+  <si>
+    <t>time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss\.ss"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -78,10 +81,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -374,7 +378,7 @@
     <col min="2" max="2" width="22.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -384,104 +388,134 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>45617.375</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>45623</v>
+      </c>
+      <c r="B2" s="1">
         <v>2</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>45617.541666666664</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="D2" s="2">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>45624</v>
+      </c>
+      <c r="B3" s="1">
         <v>3</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>45617.791666666664</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="D3" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>45625</v>
+      </c>
+      <c r="B4" s="1">
         <v>4</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>45618.375</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="D4" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>45626</v>
+      </c>
+      <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>45618.541666666664</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="D5" s="2">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>45627</v>
+      </c>
+      <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>45618.791666666664</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="D6" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>45628</v>
+      </c>
+      <c r="B7" s="1">
         <v>4</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>45619.375</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="D7" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>45629</v>
+      </c>
+      <c r="B8" s="1">
         <v>2</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>45619.541666666664</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="D8" s="2">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>45630</v>
+      </c>
+      <c r="B9" s="1">
         <v>3</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>45619.791666666664</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="D9" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>45631</v>
+      </c>
+      <c r="B10" s="1">
         <v>4</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/initialDataFiles/doses.xlsx
+++ b/src/main/resources/initialDataFiles/doses.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catha\Documents\Health\ADHD\medTrackerInitialData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Java\SpringBootProjects\MedTracker\src\main\resources\initialDataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14015F0B-9F52-4B5F-889C-2F24C5A56C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C9C269-1A5E-4828-9C5B-398B7123F34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-60" windowWidth="35200" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6270" yWindow="2500" windowWidth="26460" windowHeight="15910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -369,7 +369,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/main/resources/initialDataFiles/doses.xlsx
+++ b/src/main/resources/initialDataFiles/doses.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Java\SpringBootProjects\MedTracker\src\main\resources\initialDataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catha\Documents\Health\ADHD\medTrackerInitialData\Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C9C269-1A5E-4828-9C5B-398B7123F34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2873C4-1942-42C3-A5DA-2E5EDC0208DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6270" yWindow="2500" windowWidth="26460" windowHeight="15910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3010" yWindow="-110" windowWidth="35500" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>DoseTime</t>
-  </si>
-  <si>
     <t>Taken</t>
   </si>
   <si>
@@ -38,13 +35,16 @@
   <si>
     <t>time</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$]hh:mm;@" x16r2:formatCode16="[$-en-NL,1]hh:mm;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -84,8 +84,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B10"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -380,21 +380,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>45623</v>
+      <c r="A2" s="2">
+        <v>45583</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -402,13 +402,13 @@
       <c r="C2" t="b">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
-        <v>0.375</v>
+      <c r="D2" s="3">
+        <v>0.40277777777777779</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>45624</v>
+      <c r="A3" s="2">
+        <v>45583</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
@@ -416,83 +416,83 @@
       <c r="C3" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="2">
-        <v>0.54166666666666663</v>
+      <c r="D3" s="3">
+        <v>0.58194444444444449</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>45625</v>
+      <c r="A4" s="2">
+        <v>45584</v>
       </c>
       <c r="B4" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="2">
-        <v>0.75</v>
+      <c r="D4" s="3">
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>45626</v>
+      <c r="A5" s="2">
+        <v>45584</v>
       </c>
       <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.5805555555555556</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>45585</v>
+      </c>
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>45627</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.40277777777777779</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>45585</v>
+      </c>
+      <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>45628</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
-      <c r="D7" s="2">
-        <v>0.75</v>
+      <c r="D7" s="3">
+        <v>0.6020833333333333</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>45629</v>
+      <c r="A8" s="2">
+        <v>45586</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.375</v>
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.43194444444444446</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>45630</v>
+      <c r="A9" s="2">
+        <v>45586</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -500,25 +500,910 @@
       <c r="C9" t="b">
         <v>1</v>
       </c>
-      <c r="D9" s="2">
-        <v>0.54166666666666663</v>
+      <c r="D9" s="3">
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>45631</v>
+      <c r="A10" s="2">
+        <v>45587</v>
       </c>
       <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.4236111111111111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>45587</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.61597222222222225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>45588</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.43194444444444446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>45588</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.61111111111111116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>45589</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.4236111111111111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>45589</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.59375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>45590</v>
+      </c>
+      <c r="B16" s="1">
         <v>4</v>
       </c>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.75</v>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.40902777777777777</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>45590</v>
+      </c>
+      <c r="B17" s="1">
+        <v>5</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.59722222222222221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>45591</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.41736111111111113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>45591</v>
+      </c>
+      <c r="B19" s="1">
+        <v>5</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>45592</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.40138888888888891</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>45592</v>
+      </c>
+      <c r="B21" s="1">
+        <v>5</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>45593</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.38055555555555554</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>45593</v>
+      </c>
+      <c r="B23" s="1">
+        <v>5</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>45594</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.41041666666666665</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>45594</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.56597222222222221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>45595</v>
+      </c>
+      <c r="B26" s="1">
+        <v>4</v>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.38750000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>45595</v>
+      </c>
+      <c r="B27" s="1">
+        <v>5</v>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>45596</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4</v>
+      </c>
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.39305555555555555</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>45596</v>
+      </c>
+      <c r="B29" s="1">
+        <v>5</v>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.56041666666666667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B30" s="1">
+        <v>4</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.38333333333333336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B31" s="1">
+        <v>6</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.56944444444444442</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>45598</v>
+      </c>
+      <c r="B32" s="1">
+        <v>6</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>45598</v>
+      </c>
+      <c r="B33" s="1">
+        <v>7</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.61111111111111116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B34" s="1">
+        <v>6</v>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.40277777777777779</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B35" s="1">
+        <v>7</v>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.59444444444444444</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>45600</v>
+      </c>
+      <c r="B36" s="1">
+        <v>6</v>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>45600</v>
+      </c>
+      <c r="B37" s="1">
+        <v>7</v>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.5756944444444444</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>45601</v>
+      </c>
+      <c r="B38" s="1">
+        <v>6</v>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.37638888888888888</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>45601</v>
+      </c>
+      <c r="B39" s="1">
+        <v>7</v>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.5541666666666667</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>45602</v>
+      </c>
+      <c r="B40" s="1">
+        <v>6</v>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.40694444444444444</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>45602</v>
+      </c>
+      <c r="B41" s="1">
+        <v>7</v>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.57847222222222228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>45603</v>
+      </c>
+      <c r="B42" s="1">
+        <v>6</v>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <v>45603</v>
+      </c>
+      <c r="B43" s="1">
+        <v>7</v>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.58750000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
+        <v>45604</v>
+      </c>
+      <c r="B44" s="1">
+        <v>6</v>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.3923611111111111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>45604</v>
+      </c>
+      <c r="B45" s="1">
+        <v>7</v>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.58888888888888891</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>45605</v>
+      </c>
+      <c r="B46" s="1">
+        <v>6</v>
+      </c>
+      <c r="C46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.38472222222222224</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <v>45605</v>
+      </c>
+      <c r="B47" s="1">
+        <v>7</v>
+      </c>
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.6020833333333333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>45606</v>
+      </c>
+      <c r="B48" s="1">
+        <v>6</v>
+      </c>
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.39513888888888887</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>45606</v>
+      </c>
+      <c r="B49" s="1">
+        <v>7</v>
+      </c>
+      <c r="C49" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.59722222222222221</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <v>45607</v>
+      </c>
+      <c r="B50" s="1">
+        <v>6</v>
+      </c>
+      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.4201388888888889</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <v>45607</v>
+      </c>
+      <c r="B51" s="1">
+        <v>7</v>
+      </c>
+      <c r="C51" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.60138888888888886</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B52" s="1">
+        <v>6</v>
+      </c>
+      <c r="C52" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.38611111111111113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
+        <v>45608</v>
+      </c>
+      <c r="B53" s="1">
+        <v>7</v>
+      </c>
+      <c r="C53" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.56805555555555554</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="2">
+        <v>45609</v>
+      </c>
+      <c r="B54" s="1">
+        <v>6</v>
+      </c>
+      <c r="C54" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
+        <v>45609</v>
+      </c>
+      <c r="B55" s="1">
+        <v>7</v>
+      </c>
+      <c r="C55" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0.57986111111111116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="2">
+        <v>45610</v>
+      </c>
+      <c r="B56" s="1">
+        <v>6</v>
+      </c>
+      <c r="C56" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0.3840277777777778</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="2">
+        <v>45610</v>
+      </c>
+      <c r="B57" s="1">
+        <v>7</v>
+      </c>
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0.56805555555555554</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="2">
+        <v>45611</v>
+      </c>
+      <c r="B58" s="1">
+        <v>6</v>
+      </c>
+      <c r="C58" t="b">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0.40486111111111112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="2">
+        <v>45611</v>
+      </c>
+      <c r="B59" s="1">
+        <v>7</v>
+      </c>
+      <c r="C59" t="b">
+        <v>1</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0.60833333333333328</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="2">
+        <v>45612</v>
+      </c>
+      <c r="B60" s="1">
+        <v>6</v>
+      </c>
+      <c r="C60" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0.42222222222222222</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="2">
+        <v>45612</v>
+      </c>
+      <c r="B61" s="1">
+        <v>7</v>
+      </c>
+      <c r="C61" t="b">
+        <v>1</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0.63263888888888886</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="2">
+        <v>45613</v>
+      </c>
+      <c r="B62" s="1">
+        <v>6</v>
+      </c>
+      <c r="C62" t="b">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0.43333333333333335</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="2">
+        <v>45613</v>
+      </c>
+      <c r="B63" s="1">
+        <v>7</v>
+      </c>
+      <c r="C63" t="b">
+        <v>1</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0.63472222222222219</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B64" s="1">
+        <v>8</v>
+      </c>
+      <c r="C64" t="b">
+        <v>1</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0.37152777777777801</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="2">
+        <v>45621</v>
+      </c>
+      <c r="B65" s="1">
+        <v>9</v>
+      </c>
+      <c r="C65" t="b">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0.6020833333333333</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="2">
+        <v>45622</v>
+      </c>
+      <c r="B66" s="1">
+        <v>8</v>
+      </c>
+      <c r="C66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="2">
+        <v>45622</v>
+      </c>
+      <c r="B67" s="1">
+        <v>9</v>
+      </c>
+      <c r="C67" t="b">
+        <v>1</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0.55902777777777779</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="2">
+        <v>45623</v>
+      </c>
+      <c r="B68" s="1">
+        <v>8</v>
+      </c>
+      <c r="C68" t="b">
+        <v>1</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="2">
+        <v>45623</v>
+      </c>
+      <c r="B69" s="1">
+        <v>9</v>
+      </c>
+      <c r="C69" t="b">
+        <v>1</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0.56597222222222221</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="2">
+        <v>45624</v>
+      </c>
+      <c r="B70" s="1">
+        <v>8</v>
+      </c>
+      <c r="C70" t="b">
+        <v>1</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="2">
+        <v>45624</v>
+      </c>
+      <c r="B71" s="1">
+        <v>9</v>
+      </c>
+      <c r="C71" t="b">
+        <v>1</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="2">
+        <v>45625</v>
+      </c>
+      <c r="B72" s="1">
+        <v>8</v>
+      </c>
+      <c r="C72" t="b">
+        <v>1</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0.4236111111111111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="2">
+        <v>45625</v>
+      </c>
+      <c r="B73" s="1">
+        <v>9</v>
+      </c>
+      <c r="C73" t="b">
+        <v>1</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0.59375</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D73">
+    <sortCondition ref="A2:A73"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/initialDataFiles/doses.xlsx
+++ b/src/main/resources/initialDataFiles/doses.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catha\Documents\Health\ADHD\medTrackerInitialData\Personal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Java\SpringBootProjects\MedTracker\src\main\resources\initialDataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2873C4-1942-42C3-A5DA-2E5EDC0208DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9506A6-2AD6-4621-9C5E-61029CD0FCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3010" yWindow="-110" windowWidth="35500" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-60" windowWidth="35200" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -368,8 +368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -803,7 +803,7 @@
         <v>45597</v>
       </c>
       <c r="B31" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>

--- a/src/main/resources/initialDataFiles/doses.xlsx
+++ b/src/main/resources/initialDataFiles/doses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Java\SpringBootProjects\MedTracker\src\main\resources\initialDataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9506A6-2AD6-4621-9C5E-61029CD0FCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9159A2-152B-4D17-BDAA-8D82B5BAEA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-60" windowWidth="35200" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3010" yWindow="-110" windowWidth="35500" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,11 +81,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1400,9 +1401,93 @@
         <v>0.59375</v>
       </c>
     </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="2">
+        <v>45626</v>
+      </c>
+      <c r="B74" s="1">
+        <v>8</v>
+      </c>
+      <c r="C74" t="b">
+        <v>1</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0.4236111111111111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="2">
+        <v>45626</v>
+      </c>
+      <c r="B75" s="1">
+        <v>9</v>
+      </c>
+      <c r="C75" t="b">
+        <v>1</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0.59375</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B76" s="1">
+        <v>8</v>
+      </c>
+      <c r="C76" t="b">
+        <v>0</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0.4236111111111111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B77" s="1">
+        <v>9</v>
+      </c>
+      <c r="C77" t="b">
+        <v>0</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0.59375</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="2">
+        <v>45628</v>
+      </c>
+      <c r="B78" s="1">
+        <v>8</v>
+      </c>
+      <c r="C78" t="b">
+        <v>1</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="2">
+        <v>45628</v>
+      </c>
+      <c r="B79" s="1">
+        <v>9</v>
+      </c>
+      <c r="C79" t="b">
+        <v>1</v>
+      </c>
+      <c r="D79" s="4">
+        <v>0.59166666666666667</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D73">
-    <sortCondition ref="A2:A73"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A74:D79">
+    <sortCondition ref="A74:A79"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
